--- a/6.3/src/main/webapp/file/Students.xlsx
+++ b/6.3/src/main/webapp/file/Students.xlsx
@@ -32,307 +32,307 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>蔡毅抄</t>
+    <t>韩叔彬</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>杜若</t>
-  </si>
-  <si>
-    <t>顾拈霓</t>
-  </si>
-  <si>
-    <t>戴绸跃</t>
-  </si>
-  <si>
-    <t>曾勃</t>
-  </si>
-  <si>
-    <t>乔竣敌</t>
-  </si>
-  <si>
-    <t>任仿矫</t>
-  </si>
-  <si>
-    <t>张娃拆</t>
-  </si>
-  <si>
-    <t>曾赐死</t>
-  </si>
-  <si>
-    <t>张廷乐</t>
-  </si>
-  <si>
-    <t>钱刚</t>
-  </si>
-  <si>
-    <t>林滨</t>
-  </si>
-  <si>
-    <t>孟缆</t>
-  </si>
-  <si>
-    <t>段皑</t>
-  </si>
-  <si>
-    <t>姜辩宙</t>
-  </si>
-  <si>
-    <t>彭疮</t>
-  </si>
-  <si>
-    <t>康敞缔</t>
-  </si>
-  <si>
-    <t>郝蛹</t>
-  </si>
-  <si>
-    <t>侯各</t>
-  </si>
-  <si>
-    <t>熊辙</t>
-  </si>
-  <si>
-    <t>许掘</t>
-  </si>
-  <si>
-    <t>余履</t>
-  </si>
-  <si>
-    <t>谭避</t>
-  </si>
-  <si>
-    <t>汤怀节</t>
-  </si>
-  <si>
-    <t>杨沸</t>
-  </si>
-  <si>
-    <t>宋孟</t>
-  </si>
-  <si>
-    <t>蒋笺</t>
-  </si>
-  <si>
-    <t>梁蔡拭</t>
-  </si>
-  <si>
-    <t>薛氏姨</t>
-  </si>
-  <si>
-    <t>尹膀呈</t>
-  </si>
-  <si>
-    <t>田诌</t>
-  </si>
-  <si>
-    <t>钱轴抡</t>
-  </si>
-  <si>
-    <t>廖御继</t>
-  </si>
-  <si>
-    <t>胡承镶</t>
-  </si>
-  <si>
-    <t>赵尼</t>
-  </si>
-  <si>
-    <t>钱狞</t>
-  </si>
-  <si>
-    <t>汪林</t>
-  </si>
-  <si>
-    <t>曾驾</t>
-  </si>
-  <si>
-    <t>周项</t>
-  </si>
-  <si>
-    <t>谢魏旋</t>
-  </si>
-  <si>
-    <t>顾应</t>
-  </si>
-  <si>
-    <t>曹娜</t>
-  </si>
-  <si>
-    <t>徐撩嘎</t>
-  </si>
-  <si>
-    <t>毛赏</t>
-  </si>
-  <si>
-    <t>张量</t>
-  </si>
-  <si>
-    <t>高谐</t>
-  </si>
-  <si>
-    <t>蒋揭优</t>
-  </si>
-  <si>
-    <t>余浑</t>
-  </si>
-  <si>
-    <t>江播求</t>
-  </si>
-  <si>
-    <t>廖姑</t>
-  </si>
-  <si>
-    <t>漕奈譬</t>
-  </si>
-  <si>
-    <t>万寓</t>
-  </si>
-  <si>
-    <t>梁悦</t>
-  </si>
-  <si>
-    <t>沈吝</t>
-  </si>
-  <si>
-    <t>金逾</t>
-  </si>
-  <si>
-    <t>康烯履</t>
-  </si>
-  <si>
-    <t>杨藕</t>
-  </si>
-  <si>
-    <t>魏惰香</t>
-  </si>
-  <si>
-    <t>萧瑰峡</t>
-  </si>
-  <si>
-    <t>谭挣盘</t>
-  </si>
-  <si>
-    <t>彭拯哎</t>
-  </si>
-  <si>
-    <t>余抢娘</t>
-  </si>
-  <si>
-    <t>胡判盛</t>
-  </si>
-  <si>
-    <t>周澄</t>
-  </si>
-  <si>
-    <t>康酋</t>
-  </si>
-  <si>
-    <t>孔菱</t>
-  </si>
-  <si>
-    <t>韩哮</t>
-  </si>
-  <si>
-    <t>吴显魄</t>
-  </si>
-  <si>
-    <t>熊宇</t>
-  </si>
-  <si>
-    <t>朱伪</t>
-  </si>
-  <si>
-    <t>邱汀</t>
-  </si>
-  <si>
-    <t>熊筏枷</t>
-  </si>
-  <si>
-    <t>漕睦剧</t>
-  </si>
-  <si>
-    <t>龙驰</t>
-  </si>
-  <si>
-    <t>邵肺朱</t>
-  </si>
-  <si>
-    <t>郝鬼</t>
-  </si>
-  <si>
-    <t>钱煽苇</t>
-  </si>
-  <si>
-    <t>陆奥</t>
-  </si>
-  <si>
-    <t>冯愚爸</t>
-  </si>
-  <si>
-    <t>常溢</t>
-  </si>
-  <si>
-    <t>孔拘</t>
-  </si>
-  <si>
-    <t>邓宜</t>
-  </si>
-  <si>
-    <t>常肤</t>
-  </si>
-  <si>
-    <t>黎怎</t>
-  </si>
-  <si>
-    <t>汪衰</t>
-  </si>
-  <si>
-    <t>吕薄等</t>
-  </si>
-  <si>
-    <t>魏女嘿</t>
-  </si>
-  <si>
-    <t>蒋毡</t>
-  </si>
-  <si>
-    <t>曹恶</t>
-  </si>
-  <si>
-    <t>蒋俯捷</t>
-  </si>
-  <si>
-    <t>沈匪</t>
-  </si>
-  <si>
-    <t>白咯</t>
-  </si>
-  <si>
-    <t>谢山</t>
-  </si>
-  <si>
-    <t>姚巾贿</t>
-  </si>
-  <si>
-    <t>史沏</t>
-  </si>
-  <si>
-    <t>龚绝</t>
-  </si>
-  <si>
-    <t>万碘数</t>
-  </si>
-  <si>
-    <t>熊敬挞</t>
-  </si>
-  <si>
-    <t>罗两菱</t>
-  </si>
-  <si>
-    <t>邱躯鹅</t>
+    <t>赵者</t>
+  </si>
+  <si>
+    <t>熊豪</t>
+  </si>
+  <si>
+    <t>熊蒙</t>
+  </si>
+  <si>
+    <t>李两蛇</t>
+  </si>
+  <si>
+    <t>胡崔咋</t>
+  </si>
+  <si>
+    <t>吕劝</t>
+  </si>
+  <si>
+    <t>曾饿</t>
+  </si>
+  <si>
+    <t>汤拉</t>
+  </si>
+  <si>
+    <t>武班</t>
+  </si>
+  <si>
+    <t>黄吠尾</t>
+  </si>
+  <si>
+    <t>韩骂</t>
+  </si>
+  <si>
+    <t>贺热</t>
+  </si>
+  <si>
+    <t>郑戒</t>
+  </si>
+  <si>
+    <t>沈周</t>
+  </si>
+  <si>
+    <t>顾皖储</t>
+  </si>
+  <si>
+    <t>陆袄律</t>
+  </si>
+  <si>
+    <t>沈娱囚</t>
+  </si>
+  <si>
+    <t>郭孺吾</t>
+  </si>
+  <si>
+    <t>郭鞠</t>
+  </si>
+  <si>
+    <t>宋瓜</t>
+  </si>
+  <si>
+    <t>苏向曝</t>
+  </si>
+  <si>
+    <t>孙肥悉</t>
+  </si>
+  <si>
+    <t>汤岩</t>
+  </si>
+  <si>
+    <t>谭燃</t>
+  </si>
+  <si>
+    <t>曾乔</t>
+  </si>
+  <si>
+    <t>戴款拨</t>
+  </si>
+  <si>
+    <t>叶窄紧</t>
+  </si>
+  <si>
+    <t>郝姆</t>
+  </si>
+  <si>
+    <t>丁骆制</t>
+  </si>
+  <si>
+    <t>杨血</t>
+  </si>
+  <si>
+    <t>贾孟</t>
+  </si>
+  <si>
+    <t>余厌四</t>
+  </si>
+  <si>
+    <t>姚估牧</t>
+  </si>
+  <si>
+    <t>许绝</t>
+  </si>
+  <si>
+    <t>曾脸歧</t>
+  </si>
+  <si>
+    <t>冯坤孪</t>
+  </si>
+  <si>
+    <t>段伸捎</t>
+  </si>
+  <si>
+    <t>熊泊</t>
+  </si>
+  <si>
+    <t>康虽亥</t>
+  </si>
+  <si>
+    <t>孙除</t>
+  </si>
+  <si>
+    <t>陈雄</t>
+  </si>
+  <si>
+    <t>杨骤珠</t>
+  </si>
+  <si>
+    <t>姚宣</t>
+  </si>
+  <si>
+    <t>江验</t>
+  </si>
+  <si>
+    <t>夏荫</t>
+  </si>
+  <si>
+    <t>贾您</t>
+  </si>
+  <si>
+    <t>杨向</t>
+  </si>
+  <si>
+    <t>孟廉</t>
+  </si>
+  <si>
+    <t>阎硒鹰</t>
+  </si>
+  <si>
+    <t>陈凸刊</t>
+  </si>
+  <si>
+    <t>龙于</t>
+  </si>
+  <si>
+    <t>田松解</t>
+  </si>
+  <si>
+    <t>秦倚挚</t>
+  </si>
+  <si>
+    <t>杜抖</t>
+  </si>
+  <si>
+    <t>毛小</t>
+  </si>
+  <si>
+    <t>常净兰</t>
+  </si>
+  <si>
+    <t>姚磷</t>
+  </si>
+  <si>
+    <t>贾贾窝</t>
+  </si>
+  <si>
+    <t>孔勤</t>
+  </si>
+  <si>
+    <t>汪洗乞</t>
+  </si>
+  <si>
+    <t>魏兽</t>
+  </si>
+  <si>
+    <t>龙檀郁</t>
+  </si>
+  <si>
+    <t>康楞</t>
+  </si>
+  <si>
+    <t>秦澎</t>
+  </si>
+  <si>
+    <t>宋佰</t>
+  </si>
+  <si>
+    <t>史豆衬</t>
+  </si>
+  <si>
+    <t>徐炯荡</t>
+  </si>
+  <si>
+    <t>田厕奋</t>
+  </si>
+  <si>
+    <t>曹级灰</t>
+  </si>
+  <si>
+    <t>段撬</t>
+  </si>
+  <si>
+    <t>孙绢</t>
+  </si>
+  <si>
+    <t>戴秤</t>
+  </si>
+  <si>
+    <t>孟鸳核</t>
+  </si>
+  <si>
+    <t>张苇筛</t>
+  </si>
+  <si>
+    <t>林罚</t>
+  </si>
+  <si>
+    <t>谢箱</t>
+  </si>
+  <si>
+    <t>苏诉</t>
+  </si>
+  <si>
+    <t>易棉奋</t>
+  </si>
+  <si>
+    <t>郑欠仑</t>
+  </si>
+  <si>
+    <t>潘掸</t>
+  </si>
+  <si>
+    <t>史嗡浅</t>
+  </si>
+  <si>
+    <t>石会</t>
+  </si>
+  <si>
+    <t>曾孰踏</t>
+  </si>
+  <si>
+    <t>高揽坦</t>
+  </si>
+  <si>
+    <t>唐蕴</t>
+  </si>
+  <si>
+    <t>赵舒稿</t>
+  </si>
+  <si>
+    <t>侯詹皑</t>
+  </si>
+  <si>
+    <t>曾半爵</t>
+  </si>
+  <si>
+    <t>胡徊</t>
+  </si>
+  <si>
+    <t>邵爷娶</t>
+  </si>
+  <si>
+    <t>范谤蹦</t>
+  </si>
+  <si>
+    <t>黎瓶</t>
+  </si>
+  <si>
+    <t>石巍麦</t>
+  </si>
+  <si>
+    <t>曾碌戌</t>
+  </si>
+  <si>
+    <t>潘滚息</t>
+  </si>
+  <si>
+    <t>郭惟</t>
+  </si>
+  <si>
+    <t>郑挤伯</t>
+  </si>
+  <si>
+    <t>朱脐雷</t>
+  </si>
+  <si>
+    <t>方刁翼</t>
   </si>
 </sst>
 </file>

--- a/6.3/src/main/webapp/file/Students.xlsx
+++ b/6.3/src/main/webapp/file/Students.xlsx
@@ -32,307 +32,307 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>韩叔彬</t>
+    <t>蔡毅抄</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>赵者</t>
-  </si>
-  <si>
-    <t>熊豪</t>
-  </si>
-  <si>
-    <t>熊蒙</t>
-  </si>
-  <si>
-    <t>李两蛇</t>
-  </si>
-  <si>
-    <t>胡崔咋</t>
-  </si>
-  <si>
-    <t>吕劝</t>
-  </si>
-  <si>
-    <t>曾饿</t>
-  </si>
-  <si>
-    <t>汤拉</t>
-  </si>
-  <si>
-    <t>武班</t>
-  </si>
-  <si>
-    <t>黄吠尾</t>
-  </si>
-  <si>
-    <t>韩骂</t>
-  </si>
-  <si>
-    <t>贺热</t>
-  </si>
-  <si>
-    <t>郑戒</t>
-  </si>
-  <si>
-    <t>沈周</t>
-  </si>
-  <si>
-    <t>顾皖储</t>
-  </si>
-  <si>
-    <t>陆袄律</t>
-  </si>
-  <si>
-    <t>沈娱囚</t>
-  </si>
-  <si>
-    <t>郭孺吾</t>
-  </si>
-  <si>
-    <t>郭鞠</t>
-  </si>
-  <si>
-    <t>宋瓜</t>
-  </si>
-  <si>
-    <t>苏向曝</t>
-  </si>
-  <si>
-    <t>孙肥悉</t>
-  </si>
-  <si>
-    <t>汤岩</t>
-  </si>
-  <si>
-    <t>谭燃</t>
-  </si>
-  <si>
-    <t>曾乔</t>
-  </si>
-  <si>
-    <t>戴款拨</t>
-  </si>
-  <si>
-    <t>叶窄紧</t>
-  </si>
-  <si>
-    <t>郝姆</t>
-  </si>
-  <si>
-    <t>丁骆制</t>
-  </si>
-  <si>
-    <t>杨血</t>
-  </si>
-  <si>
-    <t>贾孟</t>
-  </si>
-  <si>
-    <t>余厌四</t>
-  </si>
-  <si>
-    <t>姚估牧</t>
-  </si>
-  <si>
-    <t>许绝</t>
-  </si>
-  <si>
-    <t>曾脸歧</t>
-  </si>
-  <si>
-    <t>冯坤孪</t>
-  </si>
-  <si>
-    <t>段伸捎</t>
-  </si>
-  <si>
-    <t>熊泊</t>
-  </si>
-  <si>
-    <t>康虽亥</t>
-  </si>
-  <si>
-    <t>孙除</t>
-  </si>
-  <si>
-    <t>陈雄</t>
-  </si>
-  <si>
-    <t>杨骤珠</t>
-  </si>
-  <si>
-    <t>姚宣</t>
-  </si>
-  <si>
-    <t>江验</t>
-  </si>
-  <si>
-    <t>夏荫</t>
-  </si>
-  <si>
-    <t>贾您</t>
-  </si>
-  <si>
-    <t>杨向</t>
-  </si>
-  <si>
-    <t>孟廉</t>
-  </si>
-  <si>
-    <t>阎硒鹰</t>
-  </si>
-  <si>
-    <t>陈凸刊</t>
-  </si>
-  <si>
-    <t>龙于</t>
-  </si>
-  <si>
-    <t>田松解</t>
-  </si>
-  <si>
-    <t>秦倚挚</t>
-  </si>
-  <si>
-    <t>杜抖</t>
-  </si>
-  <si>
-    <t>毛小</t>
-  </si>
-  <si>
-    <t>常净兰</t>
-  </si>
-  <si>
-    <t>姚磷</t>
-  </si>
-  <si>
-    <t>贾贾窝</t>
-  </si>
-  <si>
-    <t>孔勤</t>
-  </si>
-  <si>
-    <t>汪洗乞</t>
-  </si>
-  <si>
-    <t>魏兽</t>
-  </si>
-  <si>
-    <t>龙檀郁</t>
-  </si>
-  <si>
-    <t>康楞</t>
-  </si>
-  <si>
-    <t>秦澎</t>
-  </si>
-  <si>
-    <t>宋佰</t>
-  </si>
-  <si>
-    <t>史豆衬</t>
-  </si>
-  <si>
-    <t>徐炯荡</t>
-  </si>
-  <si>
-    <t>田厕奋</t>
-  </si>
-  <si>
-    <t>曹级灰</t>
-  </si>
-  <si>
-    <t>段撬</t>
-  </si>
-  <si>
-    <t>孙绢</t>
-  </si>
-  <si>
-    <t>戴秤</t>
-  </si>
-  <si>
-    <t>孟鸳核</t>
-  </si>
-  <si>
-    <t>张苇筛</t>
-  </si>
-  <si>
-    <t>林罚</t>
-  </si>
-  <si>
-    <t>谢箱</t>
-  </si>
-  <si>
-    <t>苏诉</t>
-  </si>
-  <si>
-    <t>易棉奋</t>
-  </si>
-  <si>
-    <t>郑欠仑</t>
-  </si>
-  <si>
-    <t>潘掸</t>
-  </si>
-  <si>
-    <t>史嗡浅</t>
-  </si>
-  <si>
-    <t>石会</t>
-  </si>
-  <si>
-    <t>曾孰踏</t>
-  </si>
-  <si>
-    <t>高揽坦</t>
-  </si>
-  <si>
-    <t>唐蕴</t>
-  </si>
-  <si>
-    <t>赵舒稿</t>
-  </si>
-  <si>
-    <t>侯詹皑</t>
-  </si>
-  <si>
-    <t>曾半爵</t>
-  </si>
-  <si>
-    <t>胡徊</t>
-  </si>
-  <si>
-    <t>邵爷娶</t>
-  </si>
-  <si>
-    <t>范谤蹦</t>
-  </si>
-  <si>
-    <t>黎瓶</t>
-  </si>
-  <si>
-    <t>石巍麦</t>
-  </si>
-  <si>
-    <t>曾碌戌</t>
-  </si>
-  <si>
-    <t>潘滚息</t>
-  </si>
-  <si>
-    <t>郭惟</t>
-  </si>
-  <si>
-    <t>郑挤伯</t>
-  </si>
-  <si>
-    <t>朱脐雷</t>
-  </si>
-  <si>
-    <t>方刁翼</t>
+    <t>杜若</t>
+  </si>
+  <si>
+    <t>顾拈霓</t>
+  </si>
+  <si>
+    <t>戴绸跃</t>
+  </si>
+  <si>
+    <t>曾勃</t>
+  </si>
+  <si>
+    <t>乔竣敌</t>
+  </si>
+  <si>
+    <t>任仿矫</t>
+  </si>
+  <si>
+    <t>张娃拆</t>
+  </si>
+  <si>
+    <t>曾赐死</t>
+  </si>
+  <si>
+    <t>张廷乐</t>
+  </si>
+  <si>
+    <t>钱刚</t>
+  </si>
+  <si>
+    <t>林滨</t>
+  </si>
+  <si>
+    <t>孟缆</t>
+  </si>
+  <si>
+    <t>段皑</t>
+  </si>
+  <si>
+    <t>姜辩宙</t>
+  </si>
+  <si>
+    <t>彭疮</t>
+  </si>
+  <si>
+    <t>康敞缔</t>
+  </si>
+  <si>
+    <t>郝蛹</t>
+  </si>
+  <si>
+    <t>侯各</t>
+  </si>
+  <si>
+    <t>熊辙</t>
+  </si>
+  <si>
+    <t>许掘</t>
+  </si>
+  <si>
+    <t>余履</t>
+  </si>
+  <si>
+    <t>谭避</t>
+  </si>
+  <si>
+    <t>汤怀节</t>
+  </si>
+  <si>
+    <t>杨沸</t>
+  </si>
+  <si>
+    <t>宋孟</t>
+  </si>
+  <si>
+    <t>蒋笺</t>
+  </si>
+  <si>
+    <t>梁蔡拭</t>
+  </si>
+  <si>
+    <t>薛氏姨</t>
+  </si>
+  <si>
+    <t>尹膀呈</t>
+  </si>
+  <si>
+    <t>田诌</t>
+  </si>
+  <si>
+    <t>钱轴抡</t>
+  </si>
+  <si>
+    <t>廖御继</t>
+  </si>
+  <si>
+    <t>胡承镶</t>
+  </si>
+  <si>
+    <t>赵尼</t>
+  </si>
+  <si>
+    <t>钱狞</t>
+  </si>
+  <si>
+    <t>汪林</t>
+  </si>
+  <si>
+    <t>曾驾</t>
+  </si>
+  <si>
+    <t>周项</t>
+  </si>
+  <si>
+    <t>谢魏旋</t>
+  </si>
+  <si>
+    <t>顾应</t>
+  </si>
+  <si>
+    <t>曹娜</t>
+  </si>
+  <si>
+    <t>徐撩嘎</t>
+  </si>
+  <si>
+    <t>毛赏</t>
+  </si>
+  <si>
+    <t>张量</t>
+  </si>
+  <si>
+    <t>高谐</t>
+  </si>
+  <si>
+    <t>蒋揭优</t>
+  </si>
+  <si>
+    <t>余浑</t>
+  </si>
+  <si>
+    <t>江播求</t>
+  </si>
+  <si>
+    <t>廖姑</t>
+  </si>
+  <si>
+    <t>漕奈譬</t>
+  </si>
+  <si>
+    <t>万寓</t>
+  </si>
+  <si>
+    <t>梁悦</t>
+  </si>
+  <si>
+    <t>沈吝</t>
+  </si>
+  <si>
+    <t>金逾</t>
+  </si>
+  <si>
+    <t>康烯履</t>
+  </si>
+  <si>
+    <t>杨藕</t>
+  </si>
+  <si>
+    <t>魏惰香</t>
+  </si>
+  <si>
+    <t>萧瑰峡</t>
+  </si>
+  <si>
+    <t>谭挣盘</t>
+  </si>
+  <si>
+    <t>彭拯哎</t>
+  </si>
+  <si>
+    <t>余抢娘</t>
+  </si>
+  <si>
+    <t>胡判盛</t>
+  </si>
+  <si>
+    <t>周澄</t>
+  </si>
+  <si>
+    <t>康酋</t>
+  </si>
+  <si>
+    <t>孔菱</t>
+  </si>
+  <si>
+    <t>韩哮</t>
+  </si>
+  <si>
+    <t>吴显魄</t>
+  </si>
+  <si>
+    <t>熊宇</t>
+  </si>
+  <si>
+    <t>朱伪</t>
+  </si>
+  <si>
+    <t>邱汀</t>
+  </si>
+  <si>
+    <t>熊筏枷</t>
+  </si>
+  <si>
+    <t>漕睦剧</t>
+  </si>
+  <si>
+    <t>龙驰</t>
+  </si>
+  <si>
+    <t>邵肺朱</t>
+  </si>
+  <si>
+    <t>郝鬼</t>
+  </si>
+  <si>
+    <t>钱煽苇</t>
+  </si>
+  <si>
+    <t>陆奥</t>
+  </si>
+  <si>
+    <t>冯愚爸</t>
+  </si>
+  <si>
+    <t>常溢</t>
+  </si>
+  <si>
+    <t>孔拘</t>
+  </si>
+  <si>
+    <t>邓宜</t>
+  </si>
+  <si>
+    <t>常肤</t>
+  </si>
+  <si>
+    <t>黎怎</t>
+  </si>
+  <si>
+    <t>汪衰</t>
+  </si>
+  <si>
+    <t>吕薄等</t>
+  </si>
+  <si>
+    <t>魏女嘿</t>
+  </si>
+  <si>
+    <t>蒋毡</t>
+  </si>
+  <si>
+    <t>曹恶</t>
+  </si>
+  <si>
+    <t>蒋俯捷</t>
+  </si>
+  <si>
+    <t>沈匪</t>
+  </si>
+  <si>
+    <t>白咯</t>
+  </si>
+  <si>
+    <t>谢山</t>
+  </si>
+  <si>
+    <t>姚巾贿</t>
+  </si>
+  <si>
+    <t>史沏</t>
+  </si>
+  <si>
+    <t>龚绝</t>
+  </si>
+  <si>
+    <t>万碘数</t>
+  </si>
+  <si>
+    <t>熊敬挞</t>
+  </si>
+  <si>
+    <t>罗两菱</t>
+  </si>
+  <si>
+    <t>邱躯鹅</t>
   </si>
 </sst>
 </file>
